--- a/UnifiedServiceDesk/CallScript/CallScript.rvl.xlsx
+++ b/UnifiedServiceDesk/CallScript/CallScript.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
   <si>
     <t>Flow</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Welcome to Case Session</t>
+  </si>
+  <si>
+    <t>GetName</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E11" s="69" t="s">
         <v>7</v>
@@ -893,19 +896,19 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
